--- a/EstimatedActiveCasesOverTimeByCounty/2021-02-13.xlsx
+++ b/EstimatedActiveCasesOverTimeByCounty/2021-02-13.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="328">
   <si>
-    <t>COVID-19 Active Cases by County, 12/11/2020 - 02/12/2021 at 3:00 PM CST</t>
+    <t>COVID-19 Active Cases by County, 12/11/2020 - 02/13/2021 at 3:00 PM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>Active Cases 02-11</t>
+  </si>
+  <si>
+    <t>Active Cases 02-12</t>
   </si>
   <si>
     <t/>
@@ -1172,6 +1175,7 @@
     <col min="62" max="62" width="12.0" customWidth="true"/>
     <col min="63" max="63" width="12.0" customWidth="true"/>
     <col min="64" max="64" width="12.0" customWidth="true"/>
+    <col min="65" max="65" width="12.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1377,13 +1381,16 @@
       <c r="BL3" t="s" s="10">
         <v>65</v>
       </c>
+      <c r="BM3" t="s" s="10">
+        <v>66</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C4" t="n">
         <v>261.0</v>
@@ -1570,14 +1577,17 @@
       </c>
       <c r="BL4" t="n">
         <v>249.0</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>262.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C5" t="n">
         <v>313.0</v>
@@ -1763,15 +1773,18 @@
         <v>146.0</v>
       </c>
       <c r="BL5" t="n">
+        <v>147.0</v>
+      </c>
+      <c r="BM5" t="n">
         <v>147.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C6" t="n">
         <v>751.0</v>
@@ -1958,14 +1971,17 @@
       </c>
       <c r="BL6" t="n">
         <v>695.0</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>697.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C7" t="n">
         <v>103.0</v>
@@ -2152,14 +2168,17 @@
       </c>
       <c r="BL7" t="n">
         <v>155.0</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>144.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C8" t="n">
         <v>45.0</v>
@@ -2345,15 +2364,18 @@
         <v>1.0</v>
       </c>
       <c r="BL8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BM8" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C9" t="n">
         <v>32.0</v>
@@ -2539,15 +2561,18 @@
         <v>9.0</v>
       </c>
       <c r="BL9" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="BM9" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C10" t="n">
         <v>210.0</v>
@@ -2734,14 +2759,17 @@
       </c>
       <c r="BL10" t="n">
         <v>219.0</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>205.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C11" t="n">
         <v>77.0</v>
@@ -2928,14 +2956,17 @@
       </c>
       <c r="BL11" t="n">
         <v>75.0</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>74.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C12" t="n">
         <v>118.0</v>
@@ -3122,14 +3153,17 @@
       </c>
       <c r="BL12" t="n">
         <v>13.0</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C13" t="n">
         <v>46.0</v>
@@ -3316,14 +3350,17 @@
       </c>
       <c r="BL13" t="n">
         <v>70.0</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>64.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C14" t="n">
         <v>461.0</v>
@@ -3510,14 +3547,17 @@
       </c>
       <c r="BL14" t="n">
         <v>1912.0</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>1865.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C15" t="n">
         <v>8.0</v>
@@ -3703,15 +3743,18 @@
         <v>2.0</v>
       </c>
       <c r="BL15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BM15" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C16" t="n">
         <v>171.0</v>
@@ -3898,14 +3941,17 @@
       </c>
       <c r="BL16" t="n">
         <v>236.0</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>237.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C17" t="n">
         <v>1639.0</v>
@@ -4092,14 +4138,17 @@
       </c>
       <c r="BL17" t="n">
         <v>1188.0</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>1072.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C18" t="n">
         <v>15750.0</v>
@@ -4286,14 +4335,17 @@
       </c>
       <c r="BL18" t="n">
         <v>24030.0</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>23195.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C19" t="n">
         <v>24.0</v>
@@ -4479,15 +4531,18 @@
         <v>189.0</v>
       </c>
       <c r="BL19" t="n">
+        <v>190.0</v>
+      </c>
+      <c r="BM19" t="n">
         <v>190.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C20" t="n">
         <v>5.0</v>
@@ -4673,15 +4728,18 @@
         <v>0.0</v>
       </c>
       <c r="BL20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM20" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C21" t="n">
         <v>74.0</v>
@@ -4868,14 +4926,17 @@
       </c>
       <c r="BL21" t="n">
         <v>289.0</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>297.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C22" t="n">
         <v>482.0</v>
@@ -5062,14 +5123,17 @@
       </c>
       <c r="BL22" t="n">
         <v>564.0</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>575.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C23" t="n">
         <v>2730.0</v>
@@ -5256,14 +5320,17 @@
       </c>
       <c r="BL23" t="n">
         <v>4421.0</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>4290.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C24" t="n">
         <v>854.0</v>
@@ -5450,14 +5517,17 @@
       </c>
       <c r="BL24" t="n">
         <v>1268.0</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>1173.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C25" t="n">
         <v>182.0</v>
@@ -5644,14 +5714,17 @@
       </c>
       <c r="BL25" t="n">
         <v>21.0</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C26" t="n">
         <v>15.0</v>
@@ -5838,14 +5911,17 @@
       </c>
       <c r="BL26" t="n">
         <v>8.0</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C27" t="n">
         <v>38.0</v>
@@ -6032,14 +6108,17 @@
       </c>
       <c r="BL27" t="n">
         <v>34.0</v>
+      </c>
+      <c r="BM27" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C28" t="n">
         <v>429.0</v>
@@ -6226,14 +6305,17 @@
       </c>
       <c r="BL28" t="n">
         <v>126.0</v>
+      </c>
+      <c r="BM28" t="n">
+        <v>189.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C29" t="n">
         <v>119.0</v>
@@ -6420,14 +6502,17 @@
       </c>
       <c r="BL29" t="n">
         <v>578.0</v>
+      </c>
+      <c r="BM29" t="n">
+        <v>588.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C30" t="n">
         <v>311.0</v>
@@ -6614,14 +6699,17 @@
       </c>
       <c r="BL30" t="n">
         <v>1005.0</v>
+      </c>
+      <c r="BM30" t="n">
+        <v>1026.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B31" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C31" t="n">
         <v>197.0</v>
@@ -6807,15 +6895,18 @@
         <v>1363.0</v>
       </c>
       <c r="BL31" t="n">
+        <v>1308.0</v>
+      </c>
+      <c r="BM31" t="n">
         <v>1308.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C32" t="n">
         <v>51.0</v>
@@ -7002,14 +7093,17 @@
       </c>
       <c r="BL32" t="n">
         <v>95.0</v>
+      </c>
+      <c r="BM32" t="n">
+        <v>91.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C33" t="n">
         <v>49.0</v>
@@ -7196,14 +7290,17 @@
       </c>
       <c r="BL33" t="n">
         <v>14.0</v>
+      </c>
+      <c r="BM33" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B34" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C34" t="n">
         <v>2029.0</v>
@@ -7390,14 +7487,17 @@
       </c>
       <c r="BL34" t="n">
         <v>4493.0</v>
+      </c>
+      <c r="BM34" t="n">
+        <v>4551.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B35" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C35" t="n">
         <v>71.0</v>
@@ -7584,14 +7684,17 @@
       </c>
       <c r="BL35" t="n">
         <v>174.0</v>
+      </c>
+      <c r="BM35" t="n">
+        <v>181.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C36" t="n">
         <v>117.0</v>
@@ -7777,15 +7880,18 @@
         <v>16.0</v>
       </c>
       <c r="BL36" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="BM36" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B37" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C37" t="n">
         <v>83.0</v>
@@ -7971,15 +8077,18 @@
         <v>107.0</v>
       </c>
       <c r="BL37" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="BM37" t="n">
         <v>115.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B38" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C38" t="n">
         <v>133.0</v>
@@ -8165,15 +8274,18 @@
         <v>26.0</v>
       </c>
       <c r="BL38" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="BM38" t="n">
         <v>26.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B39" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C39" t="n">
         <v>269.0</v>
@@ -8360,14 +8472,17 @@
       </c>
       <c r="BL39" t="n">
         <v>334.0</v>
+      </c>
+      <c r="BM39" t="n">
+        <v>321.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B40" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C40" t="n">
         <v>214.0</v>
@@ -8553,15 +8668,18 @@
         <v>13.0</v>
       </c>
       <c r="BL40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM40" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B41" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C41" t="n">
         <v>218.0</v>
@@ -8748,14 +8866,17 @@
       </c>
       <c r="BL41" t="n">
         <v>12.0</v>
+      </c>
+      <c r="BM41" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B42" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C42" t="n">
         <v>63.0</v>
@@ -8942,14 +9063,17 @@
       </c>
       <c r="BL42" t="n">
         <v>10.0</v>
+      </c>
+      <c r="BM42" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B43" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C43" t="n">
         <v>19.0</v>
@@ -9136,14 +9260,17 @@
       </c>
       <c r="BL43" t="n">
         <v>16.0</v>
+      </c>
+      <c r="BM43" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B44" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C44" t="n">
         <v>38.0</v>
@@ -9330,14 +9457,17 @@
       </c>
       <c r="BL44" t="n">
         <v>4.0</v>
+      </c>
+      <c r="BM44" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B45" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C45" t="n">
         <v>12.0</v>
@@ -9523,15 +9653,18 @@
         <v>4.0</v>
       </c>
       <c r="BL45" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BM45" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B46" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C46" t="n">
         <v>3987.0</v>
@@ -9718,14 +9851,17 @@
       </c>
       <c r="BL46" t="n">
         <v>3185.0</v>
+      </c>
+      <c r="BM46" t="n">
+        <v>3200.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B47" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C47" t="n">
         <v>104.0</v>
@@ -9911,15 +10047,18 @@
         <v>7.0</v>
       </c>
       <c r="BL47" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BM47" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B48" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C48" t="n">
         <v>91.0</v>
@@ -10106,14 +10245,17 @@
       </c>
       <c r="BL48" t="n">
         <v>46.0</v>
+      </c>
+      <c r="BM48" t="n">
+        <v>42.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B49" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C49" t="n">
         <v>667.0</v>
@@ -10300,14 +10442,17 @@
       </c>
       <c r="BL49" t="n">
         <v>645.0</v>
+      </c>
+      <c r="BM49" t="n">
+        <v>630.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B50" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C50" t="n">
         <v>112.0</v>
@@ -10494,14 +10639,17 @@
       </c>
       <c r="BL50" t="n">
         <v>31.0</v>
+      </c>
+      <c r="BM50" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B51" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C51" t="n">
         <v>11.0</v>
@@ -10688,14 +10836,17 @@
       </c>
       <c r="BL51" t="n">
         <v>25.0</v>
+      </c>
+      <c r="BM51" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B52" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C52" t="n">
         <v>249.0</v>
@@ -10882,14 +11033,17 @@
       </c>
       <c r="BL52" t="n">
         <v>73.0</v>
+      </c>
+      <c r="BM52" t="n">
+        <v>69.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B53" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C53" t="n">
         <v>318.0</v>
@@ -11076,14 +11230,17 @@
       </c>
       <c r="BL53" t="n">
         <v>467.0</v>
+      </c>
+      <c r="BM53" t="n">
+        <v>456.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B54" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C54" t="n">
         <v>30.0</v>
@@ -11269,15 +11426,18 @@
         <v>0.0</v>
       </c>
       <c r="BL54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM54" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B55" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C55" t="n">
         <v>0.0</v>
@@ -11463,15 +11623,18 @@
         <v>0.0</v>
       </c>
       <c r="BL55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM55" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C56" t="n">
         <v>8.0</v>
@@ -11657,15 +11820,18 @@
         <v>57.0</v>
       </c>
       <c r="BL56" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="BM56" t="n">
         <v>55.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B57" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C57" t="n">
         <v>40.0</v>
@@ -11852,14 +12018,17 @@
       </c>
       <c r="BL57" t="n">
         <v>41.0</v>
+      </c>
+      <c r="BM57" t="n">
+        <v>37.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B58" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C58" t="n">
         <v>44.0</v>
@@ -12046,14 +12215,17 @@
       </c>
       <c r="BL58" t="n">
         <v>21.0</v>
+      </c>
+      <c r="BM58" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C59" t="n">
         <v>24.0</v>
@@ -12240,14 +12412,17 @@
       </c>
       <c r="BL59" t="n">
         <v>23.0</v>
+      </c>
+      <c r="BM59" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C60" t="n">
         <v>25147.0</v>
@@ -12434,14 +12609,17 @@
       </c>
       <c r="BL60" t="n">
         <v>25262.0</v>
+      </c>
+      <c r="BM60" t="n">
+        <v>24275.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B61" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C61" t="n">
         <v>161.0</v>
@@ -12628,14 +12806,17 @@
       </c>
       <c r="BL61" t="n">
         <v>19.0</v>
+      </c>
+      <c r="BM61" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C62" t="n">
         <v>418.0</v>
@@ -12822,14 +13003,17 @@
       </c>
       <c r="BL62" t="n">
         <v>96.0</v>
+      </c>
+      <c r="BM62" t="n">
+        <v>93.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C63" t="n">
         <v>25.0</v>
@@ -13016,14 +13200,17 @@
       </c>
       <c r="BL63" t="n">
         <v>39.0</v>
+      </c>
+      <c r="BM63" t="n">
+        <v>40.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C64" t="n">
         <v>8213.0</v>
@@ -13210,14 +13397,17 @@
       </c>
       <c r="BL64" t="n">
         <v>14928.0</v>
+      </c>
+      <c r="BM64" t="n">
+        <v>14878.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C65" t="n">
         <v>99.0</v>
@@ -13404,14 +13594,17 @@
       </c>
       <c r="BL65" t="n">
         <v>139.0</v>
+      </c>
+      <c r="BM65" t="n">
+        <v>114.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C66" t="n">
         <v>19.0</v>
@@ -13598,14 +13791,17 @@
       </c>
       <c r="BL66" t="n">
         <v>8.0</v>
+      </c>
+      <c r="BM66" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C67" t="n">
         <v>44.0</v>
@@ -13792,14 +13988,17 @@
       </c>
       <c r="BL67" t="n">
         <v>128.0</v>
+      </c>
+      <c r="BM67" t="n">
+        <v>111.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C68" t="n">
         <v>47.0</v>
@@ -13986,14 +14185,17 @@
       </c>
       <c r="BL68" t="n">
         <v>21.0</v>
+      </c>
+      <c r="BM68" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C69" t="n">
         <v>86.0</v>
@@ -14180,14 +14382,17 @@
       </c>
       <c r="BL69" t="n">
         <v>46.0</v>
+      </c>
+      <c r="BM69" t="n">
+        <v>44.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C70" t="n">
         <v>55.0</v>
@@ -14374,14 +14579,17 @@
       </c>
       <c r="BL70" t="n">
         <v>35.0</v>
+      </c>
+      <c r="BM70" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B71" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C71" t="n">
         <v>5924.0</v>
@@ -14568,14 +14776,17 @@
       </c>
       <c r="BL71" t="n">
         <v>2387.0</v>
+      </c>
+      <c r="BM71" t="n">
+        <v>2478.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B72" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C72" t="n">
         <v>14.0</v>
@@ -14761,15 +14972,18 @@
         <v>3.0</v>
       </c>
       <c r="BL72" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BM72" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B73" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C73" t="n">
         <v>856.0</v>
@@ -14956,14 +15170,17 @@
       </c>
       <c r="BL73" t="n">
         <v>493.0</v>
+      </c>
+      <c r="BM73" t="n">
+        <v>470.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B74" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C74" t="n">
         <v>37353.0</v>
@@ -15150,14 +15367,17 @@
       </c>
       <c r="BL74" t="n">
         <v>8142.0</v>
+      </c>
+      <c r="BM74" t="n">
+        <v>8054.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B75" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C75" t="n">
         <v>162.0</v>
@@ -15344,14 +15564,17 @@
       </c>
       <c r="BL75" t="n">
         <v>60.0</v>
+      </c>
+      <c r="BM75" t="n">
+        <v>58.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B76" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C76" t="n">
         <v>77.0</v>
@@ -15538,14 +15761,17 @@
       </c>
       <c r="BL76" t="n">
         <v>263.0</v>
+      </c>
+      <c r="BM76" t="n">
+        <v>274.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B77" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C77" t="n">
         <v>151.0</v>
@@ -15731,15 +15957,18 @@
         <v>68.0</v>
       </c>
       <c r="BL77" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="BM77" t="n">
         <v>66.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B78" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C78" t="n">
         <v>193.0</v>
@@ -15926,14 +16155,17 @@
       </c>
       <c r="BL78" t="n">
         <v>390.0</v>
+      </c>
+      <c r="BM78" t="n">
+        <v>394.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B79" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C79" t="n">
         <v>28.0</v>
@@ -16120,14 +16352,17 @@
       </c>
       <c r="BL79" t="n">
         <v>3.0</v>
+      </c>
+      <c r="BM79" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B80" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C80" t="n">
         <v>107.0</v>
@@ -16314,14 +16549,17 @@
       </c>
       <c r="BL80" t="n">
         <v>58.0</v>
+      </c>
+      <c r="BM80" t="n">
+        <v>54.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B81" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C81" t="n">
         <v>0.0</v>
@@ -16508,14 +16746,17 @@
       </c>
       <c r="BL81" t="n">
         <v>6.0</v>
+      </c>
+      <c r="BM81" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B82" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C82" t="n">
         <v>7296.0</v>
@@ -16702,14 +16943,17 @@
       </c>
       <c r="BL82" t="n">
         <v>12950.0</v>
+      </c>
+      <c r="BM82" t="n">
+        <v>12825.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B83" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C83" t="n">
         <v>24.0</v>
@@ -16896,14 +17140,17 @@
       </c>
       <c r="BL83" t="n">
         <v>107.0</v>
+      </c>
+      <c r="BM83" t="n">
+        <v>104.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B84" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C84" t="n">
         <v>129.0</v>
@@ -17090,14 +17337,17 @@
       </c>
       <c r="BL84" t="n">
         <v>404.0</v>
+      </c>
+      <c r="BM84" t="n">
+        <v>297.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B85" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C85" t="n">
         <v>107.0</v>
@@ -17284,14 +17534,17 @@
       </c>
       <c r="BL85" t="n">
         <v>89.0</v>
+      </c>
+      <c r="BM85" t="n">
+        <v>87.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B86" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C86" t="n">
         <v>162.0</v>
@@ -17478,14 +17731,17 @@
       </c>
       <c r="BL86" t="n">
         <v>22.0</v>
+      </c>
+      <c r="BM86" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B87" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C87" t="n">
         <v>2026.0</v>
@@ -17672,14 +17928,17 @@
       </c>
       <c r="BL87" t="n">
         <v>6200.0</v>
+      </c>
+      <c r="BM87" t="n">
+        <v>6375.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B88" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C88" t="n">
         <v>27.0</v>
@@ -17866,14 +18125,17 @@
       </c>
       <c r="BL88" t="n">
         <v>32.0</v>
+      </c>
+      <c r="BM88" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B89" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C89" t="n">
         <v>126.0</v>
@@ -18059,15 +18321,18 @@
         <v>70.0</v>
       </c>
       <c r="BL89" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="BM89" t="n">
         <v>69.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B90" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C90" t="n">
         <v>0.0</v>
@@ -18253,15 +18518,18 @@
         <v>0.0</v>
       </c>
       <c r="BL90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM90" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B91" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C91" t="n">
         <v>2.0</v>
@@ -18447,15 +18715,18 @@
         <v>14.0</v>
       </c>
       <c r="BL91" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="BM91" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B92" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C92" t="n">
         <v>87.0</v>
@@ -18642,14 +18913,17 @@
       </c>
       <c r="BL92" t="n">
         <v>83.0</v>
+      </c>
+      <c r="BM92" t="n">
+        <v>78.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B93" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C93" t="n">
         <v>355.0</v>
@@ -18836,14 +19110,17 @@
       </c>
       <c r="BL93" t="n">
         <v>81.0</v>
+      </c>
+      <c r="BM93" t="n">
+        <v>77.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B94" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C94" t="n">
         <v>420.0</v>
@@ -19030,14 +19307,17 @@
       </c>
       <c r="BL94" t="n">
         <v>286.0</v>
+      </c>
+      <c r="BM94" t="n">
+        <v>226.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B95" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C95" t="n">
         <v>2037.0</v>
@@ -19224,14 +19504,17 @@
       </c>
       <c r="BL95" t="n">
         <v>3489.0</v>
+      </c>
+      <c r="BM95" t="n">
+        <v>3487.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B96" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C96" t="n">
         <v>179.0</v>
@@ -19418,14 +19701,17 @@
       </c>
       <c r="BL96" t="n">
         <v>658.0</v>
+      </c>
+      <c r="BM96" t="n">
+        <v>673.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B97" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C97" t="n">
         <v>401.0</v>
@@ -19612,14 +19898,17 @@
       </c>
       <c r="BL97" t="n">
         <v>513.0</v>
+      </c>
+      <c r="BM97" t="n">
+        <v>497.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B98" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C98" t="n">
         <v>440.0</v>
@@ -19806,14 +20095,17 @@
       </c>
       <c r="BL98" t="n">
         <v>97.0</v>
+      </c>
+      <c r="BM98" t="n">
+        <v>108.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B99" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C99" t="n">
         <v>91.0</v>
@@ -20000,14 +20292,17 @@
       </c>
       <c r="BL99" t="n">
         <v>42.0</v>
+      </c>
+      <c r="BM99" t="n">
+        <v>37.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B100" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C100" t="n">
         <v>53.0</v>
@@ -20194,14 +20489,17 @@
       </c>
       <c r="BL100" t="n">
         <v>88.0</v>
+      </c>
+      <c r="BM100" t="n">
+        <v>92.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B101" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C101" t="n">
         <v>112.0</v>
@@ -20388,14 +20686,17 @@
       </c>
       <c r="BL101" t="n">
         <v>58.0</v>
+      </c>
+      <c r="BM101" t="n">
+        <v>49.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B102" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C102" t="n">
         <v>13.0</v>
@@ -20582,14 +20883,17 @@
       </c>
       <c r="BL102" t="n">
         <v>6.0</v>
+      </c>
+      <c r="BM102" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B103" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C103" t="n">
         <v>1162.0</v>
@@ -20776,14 +21080,17 @@
       </c>
       <c r="BL103" t="n">
         <v>816.0</v>
+      </c>
+      <c r="BM103" t="n">
+        <v>919.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B104" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C104" t="n">
         <v>21091.0</v>
@@ -20970,14 +21277,17 @@
       </c>
       <c r="BL104" t="n">
         <v>34209.0</v>
+      </c>
+      <c r="BM104" t="n">
+        <v>34062.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B105" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C105" t="n">
         <v>239.0</v>
@@ -21164,14 +21474,17 @@
       </c>
       <c r="BL105" t="n">
         <v>946.0</v>
+      </c>
+      <c r="BM105" t="n">
+        <v>942.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B106" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C106" t="n">
         <v>61.0</v>
@@ -21358,14 +21671,17 @@
       </c>
       <c r="BL106" t="n">
         <v>43.0</v>
+      </c>
+      <c r="BM106" t="n">
+        <v>42.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B107" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C107" t="n">
         <v>13.0</v>
@@ -21552,14 +21868,17 @@
       </c>
       <c r="BL107" t="n">
         <v>4.0</v>
+      </c>
+      <c r="BM107" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B108" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C108" t="n">
         <v>982.0</v>
@@ -21746,14 +22065,17 @@
       </c>
       <c r="BL108" t="n">
         <v>1544.0</v>
+      </c>
+      <c r="BM108" t="n">
+        <v>1397.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B109" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C109" t="n">
         <v>55.0</v>
@@ -21940,14 +22262,17 @@
       </c>
       <c r="BL109" t="n">
         <v>39.0</v>
+      </c>
+      <c r="BM109" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B110" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C110" t="n">
         <v>1131.0</v>
@@ -22134,14 +22459,17 @@
       </c>
       <c r="BL110" t="n">
         <v>1830.0</v>
+      </c>
+      <c r="BM110" t="n">
+        <v>1829.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B111" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C111" t="n">
         <v>2517.0</v>
@@ -22328,14 +22656,17 @@
       </c>
       <c r="BL111" t="n">
         <v>2233.0</v>
+      </c>
+      <c r="BM111" t="n">
+        <v>2191.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B112" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C112" t="n">
         <v>327.0</v>
@@ -22522,14 +22853,17 @@
       </c>
       <c r="BL112" t="n">
         <v>854.0</v>
+      </c>
+      <c r="BM112" t="n">
+        <v>871.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B113" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C113" t="n">
         <v>256.0</v>
@@ -22716,14 +23050,17 @@
       </c>
       <c r="BL113" t="n">
         <v>97.0</v>
+      </c>
+      <c r="BM113" t="n">
+        <v>89.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B114" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C114" t="n">
         <v>280.0</v>
@@ -22910,14 +23247,17 @@
       </c>
       <c r="BL114" t="n">
         <v>116.0</v>
+      </c>
+      <c r="BM114" t="n">
+        <v>106.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B115" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C115" t="n">
         <v>225.0</v>
@@ -23104,14 +23444,17 @@
       </c>
       <c r="BL115" t="n">
         <v>208.0</v>
+      </c>
+      <c r="BM115" t="n">
+        <v>210.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B116" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C116" t="n">
         <v>54.0</v>
@@ -23298,14 +23641,17 @@
       </c>
       <c r="BL116" t="n">
         <v>80.0</v>
+      </c>
+      <c r="BM116" t="n">
+        <v>78.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B117" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C117" t="n">
         <v>594.0</v>
@@ -23492,14 +23838,17 @@
       </c>
       <c r="BL117" t="n">
         <v>160.0</v>
+      </c>
+      <c r="BM117" t="n">
+        <v>108.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B118" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C118" t="n">
         <v>64.0</v>
@@ -23685,15 +24034,18 @@
         <v>0.0</v>
       </c>
       <c r="BL118" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM118" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B119" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C119" t="n">
         <v>321.0</v>
@@ -23879,15 +24231,18 @@
         <v>1243.0</v>
       </c>
       <c r="BL119" t="n">
+        <v>1241.0</v>
+      </c>
+      <c r="BM119" t="n">
         <v>1241.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B120" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C120" t="n">
         <v>264.0</v>
@@ -24074,14 +24429,17 @@
       </c>
       <c r="BL120" t="n">
         <v>102.0</v>
+      </c>
+      <c r="BM120" t="n">
+        <v>92.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B121" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C121" t="n">
         <v>0.0</v>
@@ -24267,15 +24625,18 @@
         <v>16.0</v>
       </c>
       <c r="BL121" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="BM121" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B122" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C122" t="n">
         <v>17.0</v>
@@ -24462,14 +24823,17 @@
       </c>
       <c r="BL122" t="n">
         <v>5.0</v>
+      </c>
+      <c r="BM122" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B123" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C123" t="n">
         <v>58.0</v>
@@ -24656,14 +25020,17 @@
       </c>
       <c r="BL123" t="n">
         <v>37.0</v>
+      </c>
+      <c r="BM123" t="n">
+        <v>33.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B124" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C124" t="n">
         <v>138.0</v>
@@ -24850,14 +25217,17 @@
       </c>
       <c r="BL124" t="n">
         <v>52.0</v>
+      </c>
+      <c r="BM124" t="n">
+        <v>56.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B125" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C125" t="n">
         <v>19.0</v>
@@ -25044,14 +25414,17 @@
       </c>
       <c r="BL125" t="n">
         <v>36.0</v>
+      </c>
+      <c r="BM125" t="n">
+        <v>41.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B126" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C126" t="n">
         <v>2137.0</v>
@@ -25238,14 +25611,17 @@
       </c>
       <c r="BL126" t="n">
         <v>2647.0</v>
+      </c>
+      <c r="BM126" t="n">
+        <v>2606.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B127" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C127" t="n">
         <v>42.0</v>
@@ -25432,14 +25808,17 @@
       </c>
       <c r="BL127" t="n">
         <v>74.0</v>
+      </c>
+      <c r="BM127" t="n">
+        <v>71.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B128" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C128" t="n">
         <v>248.0</v>
@@ -25626,14 +26005,17 @@
       </c>
       <c r="BL128" t="n">
         <v>305.0</v>
+      </c>
+      <c r="BM128" t="n">
+        <v>282.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B129" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C129" t="n">
         <v>846.0</v>
@@ -25820,14 +26202,17 @@
       </c>
       <c r="BL129" t="n">
         <v>380.0</v>
+      </c>
+      <c r="BM129" t="n">
+        <v>336.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B130" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C130" t="n">
         <v>658.0</v>
@@ -26014,14 +26399,17 @@
       </c>
       <c r="BL130" t="n">
         <v>119.0</v>
+      </c>
+      <c r="BM130" t="n">
+        <v>124.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B131" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C131" t="n">
         <v>44.0</v>
@@ -26208,14 +26596,17 @@
       </c>
       <c r="BL131" t="n">
         <v>54.0</v>
+      </c>
+      <c r="BM131" t="n">
+        <v>62.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B132" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C132" t="n">
         <v>524.0</v>
@@ -26402,14 +26793,17 @@
       </c>
       <c r="BL132" t="n">
         <v>438.0</v>
+      </c>
+      <c r="BM132" t="n">
+        <v>399.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B133" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C133" t="n">
         <v>120.0</v>
@@ -26596,14 +26990,17 @@
       </c>
       <c r="BL133" t="n">
         <v>147.0</v>
+      </c>
+      <c r="BM133" t="n">
+        <v>151.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B134" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C134" t="n">
         <v>2.0</v>
@@ -26789,15 +27186,18 @@
         <v>3.0</v>
       </c>
       <c r="BL134" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BM134" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B135" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C135" t="n">
         <v>3.0</v>
@@ -26984,14 +27384,17 @@
       </c>
       <c r="BL135" t="n">
         <v>1.0</v>
+      </c>
+      <c r="BM135" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B136" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C136" t="n">
         <v>241.0</v>
@@ -27178,14 +27581,17 @@
       </c>
       <c r="BL136" t="n">
         <v>181.0</v>
+      </c>
+      <c r="BM136" t="n">
+        <v>182.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B137" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C137" t="n">
         <v>6.0</v>
@@ -27372,14 +27778,17 @@
       </c>
       <c r="BL137" t="n">
         <v>22.0</v>
+      </c>
+      <c r="BM137" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B138" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C138" t="n">
         <v>3.0</v>
@@ -27565,15 +27974,18 @@
         <v>1.0</v>
       </c>
       <c r="BL138" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BM138" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B139" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C139" t="n">
         <v>5.0</v>
@@ -27760,14 +28172,17 @@
       </c>
       <c r="BL139" t="n">
         <v>2.0</v>
+      </c>
+      <c r="BM139" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B140" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C140" t="n">
         <v>108.0</v>
@@ -27954,14 +28369,17 @@
       </c>
       <c r="BL140" t="n">
         <v>253.0</v>
+      </c>
+      <c r="BM140" t="n">
+        <v>215.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B141" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C141" t="n">
         <v>4.0</v>
@@ -28148,14 +28566,17 @@
       </c>
       <c r="BL141" t="n">
         <v>3.0</v>
+      </c>
+      <c r="BM141" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B142" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C142" t="n">
         <v>410.0</v>
@@ -28342,14 +28763,17 @@
       </c>
       <c r="BL142" t="n">
         <v>316.0</v>
+      </c>
+      <c r="BM142" t="n">
+        <v>308.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B143" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C143" t="n">
         <v>354.0</v>
@@ -28536,14 +28960,17 @@
       </c>
       <c r="BL143" t="n">
         <v>67.0</v>
+      </c>
+      <c r="BM143" t="n">
+        <v>61.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B144" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C144" t="n">
         <v>113.0</v>
@@ -28730,14 +29157,17 @@
       </c>
       <c r="BL144" t="n">
         <v>591.0</v>
+      </c>
+      <c r="BM144" t="n">
+        <v>582.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B145" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C145" t="n">
         <v>76.0</v>
@@ -28923,15 +29353,18 @@
         <v>132.0</v>
       </c>
       <c r="BL145" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="BM145" t="n">
         <v>61.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B146" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C146" t="n">
         <v>47.0</v>
@@ -29118,14 +29551,17 @@
       </c>
       <c r="BL146" t="n">
         <v>52.0</v>
+      </c>
+      <c r="BM146" t="n">
+        <v>44.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B147" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C147" t="n">
         <v>123.0</v>
@@ -29312,14 +29748,17 @@
       </c>
       <c r="BL147" t="n">
         <v>426.0</v>
+      </c>
+      <c r="BM147" t="n">
+        <v>428.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B148" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C148" t="n">
         <v>98.0</v>
@@ -29505,15 +29944,18 @@
         <v>294.0</v>
       </c>
       <c r="BL148" t="n">
+        <v>298.0</v>
+      </c>
+      <c r="BM148" t="n">
         <v>298.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B149" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C149" t="n">
         <v>203.0</v>
@@ -29700,14 +30142,17 @@
       </c>
       <c r="BL149" t="n">
         <v>483.0</v>
+      </c>
+      <c r="BM149" t="n">
+        <v>469.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B150" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C150" t="n">
         <v>137.0</v>
@@ -29894,14 +30339,17 @@
       </c>
       <c r="BL150" t="n">
         <v>626.0</v>
+      </c>
+      <c r="BM150" t="n">
+        <v>633.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B151" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C151" t="n">
         <v>53.0</v>
@@ -30088,14 +30536,17 @@
       </c>
       <c r="BL151" t="n">
         <v>28.0</v>
+      </c>
+      <c r="BM151" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B152" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C152" t="n">
         <v>137.0</v>
@@ -30282,14 +30733,17 @@
       </c>
       <c r="BL152" t="n">
         <v>77.0</v>
+      </c>
+      <c r="BM152" t="n">
+        <v>59.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B153" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C153" t="n">
         <v>133.0</v>
@@ -30476,14 +30930,17 @@
       </c>
       <c r="BL153" t="n">
         <v>371.0</v>
+      </c>
+      <c r="BM153" t="n">
+        <v>370.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B154" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C154" t="n">
         <v>0.0</v>
@@ -30669,15 +31126,18 @@
         <v>0.0</v>
       </c>
       <c r="BL154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM154" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B155" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C155" t="n">
         <v>4535.0</v>
@@ -30864,14 +31324,17 @@
       </c>
       <c r="BL155" t="n">
         <v>917.0</v>
+      </c>
+      <c r="BM155" t="n">
+        <v>823.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B156" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C156" t="n">
         <v>83.0</v>
@@ -31058,14 +31521,17 @@
       </c>
       <c r="BL156" t="n">
         <v>5.0</v>
+      </c>
+      <c r="BM156" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B157" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C157" t="n">
         <v>41.0</v>
@@ -31251,15 +31717,18 @@
         <v>31.0</v>
       </c>
       <c r="BL157" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="BM157" t="n">
         <v>34.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B158" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C158" t="n">
         <v>1147.0</v>
@@ -31446,14 +31915,17 @@
       </c>
       <c r="BL158" t="n">
         <v>605.0</v>
+      </c>
+      <c r="BM158" t="n">
+        <v>493.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B159" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C159" t="n">
         <v>7.0</v>
@@ -31639,15 +32111,18 @@
         <v>2.0</v>
       </c>
       <c r="BL159" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BM159" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B160" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C160" t="n">
         <v>62.0</v>
@@ -31833,15 +32308,18 @@
         <v>207.0</v>
       </c>
       <c r="BL160" t="n">
+        <v>205.0</v>
+      </c>
+      <c r="BM160" t="n">
         <v>205.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B161" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C161" t="n">
         <v>14.0</v>
@@ -32028,14 +32506,17 @@
       </c>
       <c r="BL161" t="n">
         <v>122.0</v>
+      </c>
+      <c r="BM161" t="n">
+        <v>124.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B162" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C162" t="n">
         <v>88.0</v>
@@ -32222,14 +32703,17 @@
       </c>
       <c r="BL162" t="n">
         <v>43.0</v>
+      </c>
+      <c r="BM162" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B163" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C163" t="n">
         <v>31.0</v>
@@ -32416,14 +32900,17 @@
       </c>
       <c r="BL163" t="n">
         <v>34.0</v>
+      </c>
+      <c r="BM163" t="n">
+        <v>40.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B164" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C164" t="n">
         <v>83.0</v>
@@ -32610,14 +33097,17 @@
       </c>
       <c r="BL164" t="n">
         <v>129.0</v>
+      </c>
+      <c r="BM164" t="n">
+        <v>125.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B165" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C165" t="n">
         <v>632.0</v>
@@ -32803,15 +33293,18 @@
         <v>1354.0</v>
       </c>
       <c r="BL165" t="n">
+        <v>1384.0</v>
+      </c>
+      <c r="BM165" t="n">
         <v>1384.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B166" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C166" t="n">
         <v>148.0</v>
@@ -32998,14 +33491,17 @@
       </c>
       <c r="BL166" t="n">
         <v>128.0</v>
+      </c>
+      <c r="BM166" t="n">
+        <v>109.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B167" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C167" t="n">
         <v>17.0</v>
@@ -33192,14 +33688,17 @@
       </c>
       <c r="BL167" t="n">
         <v>9.0</v>
+      </c>
+      <c r="BM167" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B168" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C168" t="n">
         <v>1564.0</v>
@@ -33386,14 +33885,17 @@
       </c>
       <c r="BL168" t="n">
         <v>1378.0</v>
+      </c>
+      <c r="BM168" t="n">
+        <v>1379.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B169" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C169" t="n">
         <v>123.0</v>
@@ -33579,15 +34081,18 @@
         <v>175.0</v>
       </c>
       <c r="BL169" t="n">
+        <v>175.0</v>
+      </c>
+      <c r="BM169" t="n">
         <v>175.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B170" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C170" t="n">
         <v>56.0</v>
@@ -33774,14 +34279,17 @@
       </c>
       <c r="BL170" t="n">
         <v>147.0</v>
+      </c>
+      <c r="BM170" t="n">
+        <v>142.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B171" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C171" t="n">
         <v>83.0</v>
@@ -33968,14 +34476,17 @@
       </c>
       <c r="BL171" t="n">
         <v>8.0</v>
+      </c>
+      <c r="BM171" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B172" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C172" t="n">
         <v>89.0</v>
@@ -34162,14 +34673,17 @@
       </c>
       <c r="BL172" t="n">
         <v>31.0</v>
+      </c>
+      <c r="BM172" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B173" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C173" t="n">
         <v>8150.0</v>
@@ -34356,14 +34870,17 @@
       </c>
       <c r="BL173" t="n">
         <v>22125.0</v>
+      </c>
+      <c r="BM173" t="n">
+        <v>22221.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B174" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C174" t="n">
         <v>193.0</v>
@@ -34550,14 +35067,17 @@
       </c>
       <c r="BL174" t="n">
         <v>51.0</v>
+      </c>
+      <c r="BM174" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B175" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C175" t="n">
         <v>22.0</v>
@@ -34744,14 +35264,17 @@
       </c>
       <c r="BL175" t="n">
         <v>145.0</v>
+      </c>
+      <c r="BM175" t="n">
+        <v>146.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B176" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C176" t="n">
         <v>26.0</v>
@@ -34937,15 +35460,18 @@
         <v>2.0</v>
       </c>
       <c r="BL176" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BM176" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B177" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C177" t="n">
         <v>204.0</v>
@@ -35132,14 +35658,17 @@
       </c>
       <c r="BL177" t="n">
         <v>289.0</v>
+      </c>
+      <c r="BM177" t="n">
+        <v>299.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B178" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C178" t="n">
         <v>251.0</v>
@@ -35326,14 +35855,17 @@
       </c>
       <c r="BL178" t="n">
         <v>365.0</v>
+      </c>
+      <c r="BM178" t="n">
+        <v>308.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B179" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C179" t="n">
         <v>26.0</v>
@@ -35520,14 +36052,17 @@
       </c>
       <c r="BL179" t="n">
         <v>16.0</v>
+      </c>
+      <c r="BM179" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B180" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C180" t="n">
         <v>265.0</v>
@@ -35714,14 +36249,17 @@
       </c>
       <c r="BL180" t="n">
         <v>131.0</v>
+      </c>
+      <c r="BM180" t="n">
+        <v>113.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B181" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C181" t="n">
         <v>2099.0</v>
@@ -35908,14 +36446,17 @@
       </c>
       <c r="BL181" t="n">
         <v>2357.0</v>
+      </c>
+      <c r="BM181" t="n">
+        <v>2215.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B182" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C182" t="n">
         <v>247.0</v>
@@ -36102,14 +36643,17 @@
       </c>
       <c r="BL182" t="n">
         <v>33.0</v>
+      </c>
+      <c r="BM182" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B183" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C183" t="n">
         <v>48.0</v>
@@ -36296,14 +36840,17 @@
       </c>
       <c r="BL183" t="n">
         <v>43.0</v>
+      </c>
+      <c r="BM183" t="n">
+        <v>41.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B184" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C184" t="n">
         <v>1991.0</v>
@@ -36490,14 +37037,17 @@
       </c>
       <c r="BL184" t="n">
         <v>1194.0</v>
+      </c>
+      <c r="BM184" t="n">
+        <v>1421.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B185" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C185" t="n">
         <v>121.0</v>
@@ -36684,14 +37234,17 @@
       </c>
       <c r="BL185" t="n">
         <v>59.0</v>
+      </c>
+      <c r="BM185" t="n">
+        <v>52.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B186" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C186" t="n">
         <v>92.0</v>
@@ -36878,14 +37431,17 @@
       </c>
       <c r="BL186" t="n">
         <v>145.0</v>
+      </c>
+      <c r="BM186" t="n">
+        <v>142.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B187" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C187" t="n">
         <v>611.0</v>
@@ -37072,14 +37628,17 @@
       </c>
       <c r="BL187" t="n">
         <v>378.0</v>
+      </c>
+      <c r="BM187" t="n">
+        <v>338.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B188" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C188" t="n">
         <v>160.0</v>
@@ -37266,14 +37825,17 @@
       </c>
       <c r="BL188" t="n">
         <v>19.0</v>
+      </c>
+      <c r="BM188" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B189" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C189" t="n">
         <v>160.0</v>
@@ -37460,14 +38022,17 @@
       </c>
       <c r="BL189" t="n">
         <v>55.0</v>
+      </c>
+      <c r="BM189" t="n">
+        <v>61.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B190" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C190" t="n">
         <v>303.0</v>
@@ -37653,15 +38218,18 @@
         <v>235.0</v>
       </c>
       <c r="BL190" t="n">
+        <v>235.0</v>
+      </c>
+      <c r="BM190" t="n">
         <v>235.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B191" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C191" t="n">
         <v>3236.0</v>
@@ -37848,14 +38416,17 @@
       </c>
       <c r="BL191" t="n">
         <v>726.0</v>
+      </c>
+      <c r="BM191" t="n">
+        <v>690.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B192" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C192" t="n">
         <v>118.0</v>
@@ -38042,14 +38613,17 @@
       </c>
       <c r="BL192" t="n">
         <v>78.0</v>
+      </c>
+      <c r="BM192" t="n">
+        <v>90.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B193" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C193" t="n">
         <v>220.0</v>
@@ -38235,15 +38809,18 @@
         <v>213.0</v>
       </c>
       <c r="BL193" t="n">
+        <v>226.0</v>
+      </c>
+      <c r="BM193" t="n">
         <v>226.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B194" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C194" t="n">
         <v>3899.0</v>
@@ -38430,14 +39007,17 @@
       </c>
       <c r="BL194" t="n">
         <v>881.0</v>
+      </c>
+      <c r="BM194" t="n">
+        <v>827.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B195" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C195" t="n">
         <v>4.0</v>
@@ -38624,14 +39204,17 @@
       </c>
       <c r="BL195" t="n">
         <v>10.0</v>
+      </c>
+      <c r="BM195" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B196" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C196" t="n">
         <v>8.0</v>
@@ -38817,15 +39400,18 @@
         <v>2.0</v>
       </c>
       <c r="BL196" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BM196" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B197" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C197" t="n">
         <v>49.0</v>
@@ -39012,14 +39598,17 @@
       </c>
       <c r="BL197" t="n">
         <v>30.0</v>
+      </c>
+      <c r="BM197" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B198" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C198" t="n">
         <v>255.0</v>
@@ -39206,14 +39795,17 @@
       </c>
       <c r="BL198" t="n">
         <v>139.0</v>
+      </c>
+      <c r="BM198" t="n">
+        <v>144.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B199" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C199" t="n">
         <v>44.0</v>
@@ -39400,14 +39992,17 @@
       </c>
       <c r="BL199" t="n">
         <v>35.0</v>
+      </c>
+      <c r="BM199" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B200" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C200" t="n">
         <v>7.0</v>
@@ -39593,15 +40188,18 @@
         <v>1.0</v>
       </c>
       <c r="BL200" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BM200" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B201" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C201" t="n">
         <v>121.0</v>
@@ -39787,15 +40385,18 @@
         <v>457.0</v>
       </c>
       <c r="BL201" t="n">
+        <v>452.0</v>
+      </c>
+      <c r="BM201" t="n">
         <v>452.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B202" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C202" t="n">
         <v>387.0</v>
@@ -39982,14 +40583,17 @@
       </c>
       <c r="BL202" t="n">
         <v>293.0</v>
+      </c>
+      <c r="BM202" t="n">
+        <v>290.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B203" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C203" t="n">
         <v>78.0</v>
@@ -40176,14 +40780,17 @@
       </c>
       <c r="BL203" t="n">
         <v>13.0</v>
+      </c>
+      <c r="BM203" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B204" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C204" t="n">
         <v>292.0</v>
@@ -40370,14 +40977,17 @@
       </c>
       <c r="BL204" t="n">
         <v>383.0</v>
+      </c>
+      <c r="BM204" t="n">
+        <v>388.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B205" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C205" t="n">
         <v>38.0</v>
@@ -40563,15 +41173,18 @@
         <v>0.0</v>
       </c>
       <c r="BL205" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM205" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B206" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C206" t="n">
         <v>49.0</v>
@@ -40757,15 +41370,18 @@
         <v>20.0</v>
       </c>
       <c r="BL206" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BM206" t="n">
         <v>20.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B207" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C207" t="n">
         <v>41.0</v>
@@ -40952,14 +41568,17 @@
       </c>
       <c r="BL207" t="n">
         <v>215.0</v>
+      </c>
+      <c r="BM207" t="n">
+        <v>218.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B208" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C208" t="n">
         <v>121.0</v>
@@ -41145,15 +41764,18 @@
         <v>203.0</v>
       </c>
       <c r="BL208" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="BM208" t="n">
         <v>203.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B209" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C209" t="n">
         <v>36.0</v>
@@ -41340,14 +41962,17 @@
       </c>
       <c r="BL209" t="n">
         <v>171.0</v>
+      </c>
+      <c r="BM209" t="n">
+        <v>155.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B210" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C210" t="n">
         <v>18.0</v>
@@ -41533,15 +42158,18 @@
         <v>19.0</v>
       </c>
       <c r="BL210" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="BM210" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B211" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C211" t="n">
         <v>97.0</v>
@@ -41727,15 +42355,18 @@
         <v>53.0</v>
       </c>
       <c r="BL211" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="BM211" t="n">
         <v>53.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B212" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C212" t="n">
         <v>6.0</v>
@@ -41922,14 +42553,17 @@
       </c>
       <c r="BL212" t="n">
         <v>8.0</v>
+      </c>
+      <c r="BM212" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B213" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C213" t="n">
         <v>71.0</v>
@@ -42116,14 +42750,17 @@
       </c>
       <c r="BL213" t="n">
         <v>116.0</v>
+      </c>
+      <c r="BM213" t="n">
+        <v>121.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B214" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C214" t="n">
         <v>9.0</v>
@@ -42310,14 +42947,17 @@
       </c>
       <c r="BL214" t="n">
         <v>9.0</v>
+      </c>
+      <c r="BM214" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B215" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C215" t="n">
         <v>4596.0</v>
@@ -42504,14 +43144,17 @@
       </c>
       <c r="BL215" t="n">
         <v>5904.0</v>
+      </c>
+      <c r="BM215" t="n">
+        <v>5900.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B216" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C216" t="n">
         <v>48.0</v>
@@ -42698,14 +43341,17 @@
       </c>
       <c r="BL216" t="n">
         <v>12.0</v>
+      </c>
+      <c r="BM216" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B217" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C217" t="n">
         <v>654.0</v>
@@ -42892,14 +43538,17 @@
       </c>
       <c r="BL217" t="n">
         <v>917.0</v>
+      </c>
+      <c r="BM217" t="n">
+        <v>831.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B218" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C218" t="n">
         <v>84.0</v>
@@ -43086,14 +43735,17 @@
       </c>
       <c r="BL218" t="n">
         <v>8.0</v>
+      </c>
+      <c r="BM218" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B219" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C219" t="n">
         <v>18.0</v>
@@ -43279,15 +43931,18 @@
         <v>3.0</v>
       </c>
       <c r="BL219" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BM219" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B220" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C220" t="n">
         <v>5.0</v>
@@ -43473,15 +44128,18 @@
         <v>0.0</v>
       </c>
       <c r="BL220" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM220" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B221" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C221" t="n">
         <v>58.0</v>
@@ -43668,14 +44326,17 @@
       </c>
       <c r="BL221" t="n">
         <v>29.0</v>
+      </c>
+      <c r="BM221" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B222" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C222" t="n">
         <v>159.0</v>
@@ -43862,14 +44523,17 @@
       </c>
       <c r="BL222" t="n">
         <v>37.0</v>
+      </c>
+      <c r="BM222" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B223" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C223" t="n">
         <v>31380.0</v>
@@ -44056,14 +44720,17 @@
       </c>
       <c r="BL223" t="n">
         <v>35341.0</v>
+      </c>
+      <c r="BM223" t="n">
+        <v>34098.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B224" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C224" t="n">
         <v>2592.0</v>
@@ -44250,14 +44917,17 @@
       </c>
       <c r="BL224" t="n">
         <v>1464.0</v>
+      </c>
+      <c r="BM224" t="n">
+        <v>1406.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B225" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C225" t="n">
         <v>11.0</v>
@@ -44443,15 +45113,18 @@
         <v>0.0</v>
       </c>
       <c r="BL225" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM225" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B226" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C226" t="n">
         <v>312.0</v>
@@ -44638,14 +45311,17 @@
       </c>
       <c r="BL226" t="n">
         <v>36.0</v>
+      </c>
+      <c r="BM226" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B227" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C227" t="n">
         <v>0.0</v>
@@ -44831,15 +45507,18 @@
         <v>1.0</v>
       </c>
       <c r="BL227" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BM227" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B228" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C228" t="n">
         <v>179.0</v>
@@ -45026,14 +45705,17 @@
       </c>
       <c r="BL228" t="n">
         <v>473.0</v>
+      </c>
+      <c r="BM228" t="n">
+        <v>478.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B229" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C229" t="n">
         <v>1510.0</v>
@@ -45220,14 +45902,17 @@
       </c>
       <c r="BL229" t="n">
         <v>582.0</v>
+      </c>
+      <c r="BM229" t="n">
+        <v>554.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B230" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C230" t="n">
         <v>3091.0</v>
@@ -45414,14 +46099,17 @@
       </c>
       <c r="BL230" t="n">
         <v>3506.0</v>
+      </c>
+      <c r="BM230" t="n">
+        <v>3368.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B231" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C231" t="n">
         <v>17.0</v>
@@ -45608,14 +46296,17 @@
       </c>
       <c r="BL231" t="n">
         <v>75.0</v>
+      </c>
+      <c r="BM231" t="n">
+        <v>79.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B232" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C232" t="n">
         <v>124.0</v>
@@ -45802,14 +46493,17 @@
       </c>
       <c r="BL232" t="n">
         <v>20.0</v>
+      </c>
+      <c r="BM232" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B233" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C233" t="n">
         <v>165.0</v>
@@ -45996,14 +46690,17 @@
       </c>
       <c r="BL233" t="n">
         <v>533.0</v>
+      </c>
+      <c r="BM233" t="n">
+        <v>537.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B234" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C234" t="n">
         <v>25.0</v>
@@ -46190,14 +46887,17 @@
       </c>
       <c r="BL234" t="n">
         <v>27.0</v>
+      </c>
+      <c r="BM234" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B235" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C235" t="n">
         <v>70.0</v>
@@ -46384,14 +47084,17 @@
       </c>
       <c r="BL235" t="n">
         <v>120.0</v>
+      </c>
+      <c r="BM235" t="n">
+        <v>107.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B236" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C236" t="n">
         <v>323.0</v>
@@ -46577,15 +47280,18 @@
         <v>592.0</v>
       </c>
       <c r="BL236" t="n">
+        <v>501.0</v>
+      </c>
+      <c r="BM236" t="n">
         <v>501.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B237" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C237" t="n">
         <v>1023.0</v>
@@ -46771,15 +47477,18 @@
         <v>1287.0</v>
       </c>
       <c r="BL237" t="n">
+        <v>1329.0</v>
+      </c>
+      <c r="BM237" t="n">
         <v>1329.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B238" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C238" t="n">
         <v>243.0</v>
@@ -46966,14 +47675,17 @@
       </c>
       <c r="BL238" t="n">
         <v>649.0</v>
+      </c>
+      <c r="BM238" t="n">
+        <v>620.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B239" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C239" t="n">
         <v>230.0</v>
@@ -47160,14 +47872,17 @@
       </c>
       <c r="BL239" t="n">
         <v>473.0</v>
+      </c>
+      <c r="BM239" t="n">
+        <v>445.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B240" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C240" t="n">
         <v>135.0</v>
@@ -47354,14 +48069,17 @@
       </c>
       <c r="BL240" t="n">
         <v>154.0</v>
+      </c>
+      <c r="BM240" t="n">
+        <v>157.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B241" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C241" t="n">
         <v>125.0</v>
@@ -47548,14 +48266,17 @@
       </c>
       <c r="BL241" t="n">
         <v>91.0</v>
+      </c>
+      <c r="BM241" t="n">
+        <v>94.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B242" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C242" t="n">
         <v>189.0</v>
@@ -47742,14 +48463,17 @@
       </c>
       <c r="BL242" t="n">
         <v>991.0</v>
+      </c>
+      <c r="BM242" t="n">
+        <v>996.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B243" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C243" t="n">
         <v>3689.0</v>
@@ -47936,14 +48660,17 @@
       </c>
       <c r="BL243" t="n">
         <v>4612.0</v>
+      </c>
+      <c r="BM243" t="n">
+        <v>4315.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B244" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C244" t="n">
         <v>131.0</v>
@@ -48130,14 +48857,17 @@
       </c>
       <c r="BL244" t="n">
         <v>144.0</v>
+      </c>
+      <c r="BM244" t="n">
+        <v>141.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B245" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C245" t="n">
         <v>79.0</v>
@@ -48324,14 +49054,17 @@
       </c>
       <c r="BL245" t="n">
         <v>29.0</v>
+      </c>
+      <c r="BM245" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B246" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C246" t="n">
         <v>2591.0</v>
@@ -48518,14 +49251,17 @@
       </c>
       <c r="BL246" t="n">
         <v>553.0</v>
+      </c>
+      <c r="BM246" t="n">
+        <v>412.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B247" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C247" t="n">
         <v>41.0</v>
@@ -48712,14 +49448,17 @@
       </c>
       <c r="BL247" t="n">
         <v>11.0</v>
+      </c>
+      <c r="BM247" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B248" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C248" t="n">
         <v>146.0</v>
@@ -48906,14 +49645,17 @@
       </c>
       <c r="BL248" t="n">
         <v>262.0</v>
+      </c>
+      <c r="BM248" t="n">
+        <v>257.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B249" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C249" t="n">
         <v>1135.0</v>
@@ -49100,14 +49842,17 @@
       </c>
       <c r="BL249" t="n">
         <v>935.0</v>
+      </c>
+      <c r="BM249" t="n">
+        <v>915.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B250" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C250" t="n">
         <v>176.0</v>
@@ -49294,14 +50039,17 @@
       </c>
       <c r="BL250" t="n">
         <v>138.0</v>
+      </c>
+      <c r="BM250" t="n">
+        <v>131.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B251" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C251" t="n">
         <v>126.0</v>
@@ -49488,14 +50236,17 @@
       </c>
       <c r="BL251" t="n">
         <v>31.0</v>
+      </c>
+      <c r="BM251" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B252" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C252" t="n">
         <v>350.0</v>
@@ -49682,14 +50433,17 @@
       </c>
       <c r="BL252" t="n">
         <v>178.0</v>
+      </c>
+      <c r="BM252" t="n">
+        <v>165.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B253" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C253" t="n">
         <v>357.0</v>
@@ -49876,14 +50630,17 @@
       </c>
       <c r="BL253" t="n">
         <v>1073.0</v>
+      </c>
+      <c r="BM253" t="n">
+        <v>1070.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B254" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C254" t="n">
         <v>112.0</v>
@@ -50070,14 +50827,17 @@
       </c>
       <c r="BL254" t="n">
         <v>5.0</v>
+      </c>
+      <c r="BM254" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B255" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C255" t="n">
         <v>68.0</v>
@@ -50264,14 +51024,17 @@
       </c>
       <c r="BL255" t="n">
         <v>66.0</v>
+      </c>
+      <c r="BM255" t="n">
+        <v>50.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B256" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C256" t="n">
         <v>180.0</v>
@@ -50458,14 +51221,17 @@
       </c>
       <c r="BL256" t="n">
         <v>203.0</v>
+      </c>
+      <c r="BM256" t="n">
+        <v>200.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B257" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C257" t="n">
         <v>35.0</v>
@@ -50652,14 +51418,17 @@
       </c>
       <c r="BL257" t="n">
         <v>100.0</v>
+      </c>
+      <c r="BM257" t="n">
+        <v>93.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B258" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C258"/>
       <c r="D258"/>
@@ -50723,13 +51492,14 @@
       <c r="BJ258"/>
       <c r="BK258"/>
       <c r="BL258"/>
+      <c r="BM258"/>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B259" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C259"/>
       <c r="D259"/>
@@ -50793,13 +51563,14 @@
       <c r="BJ259"/>
       <c r="BK259"/>
       <c r="BL259"/>
+      <c r="BM259"/>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B260" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C260"/>
       <c r="D260"/>
@@ -50863,13 +51634,14 @@
       <c r="BJ260"/>
       <c r="BK260"/>
       <c r="BL260"/>
+      <c r="BM260"/>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B261" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C261"/>
       <c r="D261"/>
@@ -50933,13 +51705,14 @@
       <c r="BJ261"/>
       <c r="BK261"/>
       <c r="BL261"/>
+      <c r="BM261"/>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B262" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C262"/>
       <c r="D262"/>
@@ -51003,13 +51776,14 @@
       <c r="BJ262"/>
       <c r="BK262"/>
       <c r="BL262"/>
+      <c r="BM262"/>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B263" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C263"/>
       <c r="D263"/>
@@ -51073,13 +51847,14 @@
       <c r="BJ263"/>
       <c r="BK263"/>
       <c r="BL263"/>
+      <c r="BM263"/>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B264" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C264"/>
       <c r="D264"/>
@@ -51143,13 +51918,14 @@
       <c r="BJ264"/>
       <c r="BK264"/>
       <c r="BL264"/>
+      <c r="BM264"/>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B265" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C265"/>
       <c r="D265"/>
@@ -51213,13 +51989,14 @@
       <c r="BJ265"/>
       <c r="BK265"/>
       <c r="BL265"/>
+      <c r="BM265"/>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B266" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C266"/>
       <c r="D266"/>
@@ -51283,13 +52060,14 @@
       <c r="BJ266"/>
       <c r="BK266"/>
       <c r="BL266"/>
+      <c r="BM266"/>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B267" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C267"/>
       <c r="D267"/>
@@ -51353,13 +52131,14 @@
       <c r="BJ267"/>
       <c r="BK267"/>
       <c r="BL267"/>
+      <c r="BM267"/>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B268" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C268"/>
       <c r="D268"/>
@@ -51423,13 +52202,14 @@
       <c r="BJ268"/>
       <c r="BK268"/>
       <c r="BL268"/>
+      <c r="BM268"/>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B269" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C269"/>
       <c r="D269"/>
@@ -51493,13 +52273,14 @@
       <c r="BJ269"/>
       <c r="BK269"/>
       <c r="BL269"/>
+      <c r="BM269"/>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B270" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C270"/>
       <c r="D270"/>
@@ -51563,13 +52344,14 @@
       <c r="BJ270"/>
       <c r="BK270"/>
       <c r="BL270"/>
+      <c r="BM270"/>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B271" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C271"/>
       <c r="D271"/>
@@ -51633,13 +52415,14 @@
       <c r="BJ271"/>
       <c r="BK271"/>
       <c r="BL271"/>
+      <c r="BM271"/>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B272" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C272"/>
       <c r="D272"/>
@@ -51703,13 +52486,14 @@
       <c r="BJ272"/>
       <c r="BK272"/>
       <c r="BL272"/>
+      <c r="BM272"/>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B273" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C273"/>
       <c r="D273"/>
@@ -51773,13 +52557,14 @@
       <c r="BJ273"/>
       <c r="BK273"/>
       <c r="BL273"/>
+      <c r="BM273"/>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B274" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C274"/>
       <c r="D274"/>
@@ -51843,13 +52628,14 @@
       <c r="BJ274"/>
       <c r="BK274"/>
       <c r="BL274"/>
+      <c r="BM274"/>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B275" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C275"/>
       <c r="D275"/>
@@ -51913,13 +52699,14 @@
       <c r="BJ275"/>
       <c r="BK275"/>
       <c r="BL275"/>
+      <c r="BM275"/>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B276" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C276"/>
       <c r="D276"/>
@@ -51983,13 +52770,14 @@
       <c r="BJ276"/>
       <c r="BK276"/>
       <c r="BL276"/>
+      <c r="BM276"/>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B277" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C277"/>
       <c r="D277"/>
@@ -52053,13 +52841,14 @@
       <c r="BJ277"/>
       <c r="BK277"/>
       <c r="BL277"/>
+      <c r="BM277"/>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B278" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C278"/>
       <c r="D278"/>
@@ -52123,13 +52912,14 @@
       <c r="BJ278"/>
       <c r="BK278"/>
       <c r="BL278"/>
+      <c r="BM278"/>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B279" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C279"/>
       <c r="D279"/>
@@ -52193,6 +52983,7 @@
       <c r="BJ279"/>
       <c r="BK279"/>
       <c r="BL279"/>
+      <c r="BM279"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
